--- a/GroupTree.xlsx
+++ b/GroupTree.xlsx
@@ -341,7 +341,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="str">
         <v>"G-r"</v>
@@ -350,49 +350,21 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>"1"</v>
+        <v>"4"</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="str">
-        <v>"G-1"</v>
+        <v>"G-5"</v>
       </c>
       <c r="C3" t="str">
         <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>"1-2"</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>4</v>
-      </c>
-      <c r="B4" t="str">
-        <v>"G-1.1"</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2</v>
-      </c>
-      <c r="D4" t="str">
-        <v>"1-2-4"</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>3</v>
-      </c>
-      <c r="B5" t="str">
-        <v>"G-2"</v>
-      </c>
-      <c r="C5" t="str">
-        <v>1</v>
-      </c>
-      <c r="D5" t="str">
-        <v>"1-3"</v>
+        <v>"4-5"</v>
       </c>
     </row>
   </sheetData>
